--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Produktname</t>
   </si>
@@ -44,20 +44,10 @@
     <t>Anliefertag</t>
   </si>
   <si>
-    <t>Lieferant Name</t>
-  </si>
-  <si>
-    <t>Lieferant Adresse
-(Straße Hausnummer, PLZ Ort)</t>
-  </si>
-  <si>
     <t>MHD</t>
   </si>
   <si>
     <t>Chargen-nummer</t>
-  </si>
-  <si>
-    <t>empfangene Menge</t>
   </si>
   <si>
     <t>Kommentar</t>
@@ -77,6 +67,20 @@
   <si>
     <t>Erkrankungsbeginn (EB):</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Lieferant</t>
+  </si>
+  <si>
+    <t>Adresse
+(Straße Hausnummer, PLZ Ort)</t>
+  </si>
+  <si>
+    <t>empfangene Menge
+(z.B. 4 Kartons a 10kg)</t>
+  </si>
 </sst>
 </file>
 
@@ -727,17 +731,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -885,6 +878,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1002,7 +1006,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1012,129 +1016,129 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1556,153 +1560,155 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.73046875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33.06640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="21" style="13" customWidth="1"/>
-    <col min="11" max="11" width="34.19921875" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="11.3984375" style="13"/>
+    <col min="1" max="1" width="32.73046875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.06640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.53125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="21" style="7" customWidth="1"/>
+    <col min="11" max="11" width="34.19921875" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="11.3984375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="E3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="38" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="29"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -1711,11 +1717,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="30"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -1724,11 +1730,11 @@
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -1737,11 +1743,11 @@
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="30"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -1750,11 +1756,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
@@ -1763,11 +1769,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -1776,11 +1782,11 @@
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="30"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
@@ -1789,11 +1795,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="30"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
@@ -1802,11 +1808,11 @@
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
@@ -1815,11 +1821,11 @@
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="30"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -1828,11 +1834,11 @@
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="30"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
@@ -1841,11 +1847,11 @@
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
@@ -1854,11 +1860,11 @@
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -1867,11 +1873,11 @@
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
@@ -1880,11 +1886,11 @@
       <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
@@ -1893,11 +1899,11 @@
       <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
@@ -1906,11 +1912,11 @@
       <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
@@ -1919,11 +1925,11 @@
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
@@ -1932,11 +1938,11 @@
       <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
@@ -1945,11 +1951,11 @@
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="30"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
@@ -1958,11 +1964,11 @@
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="30"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
@@ -1971,11 +1977,11 @@
       <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="30"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -1984,11 +1990,11 @@
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="30"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
@@ -1997,11 +2003,11 @@
       <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="30"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
@@ -2010,11 +2016,11 @@
       <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="30"/>
+      <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
@@ -2023,11 +2029,11 @@
       <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="30"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
@@ -2036,11 +2042,11 @@
       <c r="D36" s="3"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="30"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
@@ -2049,11 +2055,11 @@
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="30"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
@@ -2062,11 +2068,11 @@
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="30"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
@@ -2075,11 +2081,11 @@
       <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="30"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
@@ -2088,11 +2094,11 @@
       <c r="D40" s="3"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="30"/>
+      <c r="K40" s="19"/>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
@@ -2101,11 +2107,11 @@
       <c r="D41" s="3"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="30"/>
+      <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
@@ -2114,11 +2120,11 @@
       <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
@@ -2127,11 +2133,11 @@
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="30"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
@@ -2140,11 +2146,11 @@
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="30"/>
+      <c r="K44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
@@ -2153,11 +2159,11 @@
       <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="30"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
@@ -2166,11 +2172,11 @@
       <c r="D46" s="3"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="30"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
@@ -2179,11 +2185,11 @@
       <c r="D47" s="3"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="30"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
@@ -2192,11 +2198,11 @@
       <c r="D48" s="3"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="30"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
@@ -2205,11 +2211,11 @@
       <c r="D49" s="3"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="30"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
@@ -2218,11 +2224,11 @@
       <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
@@ -2231,11 +2237,11 @@
       <c r="D51" s="3"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="30"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
@@ -2244,11 +2250,11 @@
       <c r="D52" s="3"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="30"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
@@ -2257,11 +2263,11 @@
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="30"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
@@ -2270,11 +2276,11 @@
       <c r="D54" s="3"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="30"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
@@ -2283,11 +2289,11 @@
       <c r="D55" s="3"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="30"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
@@ -2296,11 +2302,11 @@
       <c r="D56" s="3"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="30"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
@@ -2309,11 +2315,11 @@
       <c r="D57" s="3"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
@@ -2322,11 +2328,11 @@
       <c r="D58" s="3"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="30"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -2335,11 +2341,11 @@
       <c r="D59" s="3"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="30"/>
+      <c r="K59" s="19"/>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
@@ -2348,11 +2354,11 @@
       <c r="D60" s="3"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="30"/>
+      <c r="K60" s="19"/>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
@@ -2361,11 +2367,11 @@
       <c r="D61" s="3"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
@@ -2374,11 +2380,11 @@
       <c r="D62" s="3"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="19"/>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
@@ -2387,11 +2393,11 @@
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="30"/>
+      <c r="K63" s="19"/>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
@@ -2400,11 +2406,11 @@
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="30"/>
+      <c r="K64" s="19"/>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
@@ -2413,11 +2419,11 @@
       <c r="D65" s="3"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="30"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -2426,11 +2432,11 @@
       <c r="D66" s="3"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="30"/>
+      <c r="K66" s="19"/>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
@@ -2439,11 +2445,11 @@
       <c r="D67" s="3"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="30"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
@@ -2452,11 +2458,11 @@
       <c r="D68" s="3"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="30"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
@@ -2465,11 +2471,11 @@
       <c r="D69" s="3"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="30"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
@@ -2478,11 +2484,11 @@
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="30"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
@@ -2491,11 +2497,11 @@
       <c r="D71" s="3"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="30"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
@@ -2504,11 +2510,11 @@
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="30"/>
+      <c r="K72" s="19"/>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
@@ -2517,11 +2523,11 @@
       <c r="D73" s="3"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="30"/>
+      <c r="K73" s="19"/>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
@@ -2530,11 +2536,11 @@
       <c r="D74" s="3"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="30"/>
+      <c r="K74" s="19"/>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
@@ -2543,11 +2549,11 @@
       <c r="D75" s="3"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="30"/>
+      <c r="K75" s="19"/>
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
@@ -2556,11 +2562,11 @@
       <c r="D76" s="3"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="30"/>
+      <c r="K76" s="19"/>
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
@@ -2569,11 +2575,11 @@
       <c r="D77" s="3"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="30"/>
+      <c r="K77" s="19"/>
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
@@ -2582,11 +2588,11 @@
       <c r="D78" s="3"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="30"/>
+      <c r="K78" s="19"/>
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
@@ -2595,11 +2601,11 @@
       <c r="D79" s="3"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="30"/>
+      <c r="K79" s="19"/>
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
@@ -2608,11 +2614,11 @@
       <c r="D80" s="3"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="30"/>
+      <c r="K80" s="19"/>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
@@ -2621,11 +2627,11 @@
       <c r="D81" s="3"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="30"/>
+      <c r="K81" s="19"/>
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
@@ -2634,11 +2640,11 @@
       <c r="D82" s="3"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="30"/>
+      <c r="K82" s="19"/>
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
@@ -2647,11 +2653,11 @@
       <c r="D83" s="3"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="30"/>
+      <c r="K83" s="19"/>
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
@@ -2660,11 +2666,11 @@
       <c r="D84" s="3"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="30"/>
+      <c r="K84" s="19"/>
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
@@ -2673,27 +2679,26 @@
       <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="31"/>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J86" s="32"/>
+      <c r="J86" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
@@ -1101,6 +1101,27 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1108,13 +1129,6 @@
     <xf numFmtId="1" fontId="31" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1125,20 +1139,6 @@
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1580,8 +1580,8 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1659,31 +1659,31 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1694,10 +1694,10 @@
       <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="25" t="s">
         <v>1</v>
       </c>
@@ -1707,8 +1707,8 @@
       <c r="I10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -2689,16 +2689,15 @@
       <c r="J86" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Produktname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tag</t>
   </si>
@@ -39,15 +36,6 @@
   </si>
   <si>
     <t>Betrieb:</t>
-  </si>
-  <si>
-    <t>Anliefertag</t>
-  </si>
-  <si>
-    <t>MHD</t>
-  </si>
-  <si>
-    <t>Chargen-nummer</t>
   </si>
   <si>
     <t>Kommentar</t>
@@ -78,15 +66,39 @@
 (Straße Hausnummer, PLZ Ort)</t>
   </si>
   <si>
-    <t>empfangene Menge
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Lotinformation</t>
+  </si>
+  <si>
+    <t>Chargennummer</t>
+  </si>
+  <si>
+    <t>Lieferung</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>MHD oder Verbrauchsdatum</t>
+  </si>
+  <si>
+    <t>abgegebene Menge
 (z.B. 4 Kartons a 10kg)</t>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +312,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -504,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -720,17 +724,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -881,6 +874,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -888,6 +905,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1006,9 +1036,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1016,49 +1046,49 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1084,61 +1114,68 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="31" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1554,1150 +1591,1248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.06640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="21" style="7" customWidth="1"/>
-    <col min="11" max="11" width="34.19921875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="11.3984375" style="7"/>
+    <col min="1" max="1" width="29.9296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.9296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="21" style="7" customWidth="1"/>
+    <col min="12" max="12" width="34.19921875" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="10"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>13</v>
+      <c r="F3" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="10"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="10"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="18"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="10"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="25" t="s">
+      <c r="I11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="40"/>
+      <c r="L11" s="43"/>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="1"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="1"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="1"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="1"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="1"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="1"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="1"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="1"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="1"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="1"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="1"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="1"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="1"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="1"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="1"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="1"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="1"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="1"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="1"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="1"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="19"/>
-    </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="1"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="19"/>
-    </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="1"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="1"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="19"/>
-    </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="1"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="19"/>
-    </row>
-    <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="1"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="19"/>
-    </row>
-    <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="1"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="19"/>
-    </row>
-    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="1"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="19"/>
-    </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="1"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="1"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="1"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="19"/>
-    </row>
-    <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="1"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="19"/>
-    </row>
-    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="1"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="19"/>
-    </row>
-    <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="1"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="1"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="1"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="19"/>
-    </row>
-    <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="1"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="19"/>
-    </row>
-    <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="1"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="19"/>
-    </row>
-    <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="1"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="19"/>
-    </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="1"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="19"/>
-    </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="1"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="19"/>
-    </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="1"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="1"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="19"/>
+    </row>
+    <row r="58" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="1"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="19"/>
+    </row>
+    <row r="59" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="1"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="19"/>
+    </row>
+    <row r="60" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="1"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="19"/>
+    </row>
+    <row r="61" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="1"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="19"/>
+    </row>
+    <row r="62" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="1"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="19"/>
-    </row>
-    <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="1"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="19"/>
-    </row>
-    <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="1"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="19"/>
+    </row>
+    <row r="64" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="1"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="19"/>
-    </row>
-    <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="1"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="19"/>
+    </row>
+    <row r="65" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="1"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="19"/>
-    </row>
-    <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="1"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="1"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="19"/>
-    </row>
-    <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="1"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="19"/>
+    </row>
+    <row r="67" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="1"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="19"/>
-    </row>
-    <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="1"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="68" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="1"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="19"/>
-    </row>
-    <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="1"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="19"/>
+    </row>
+    <row r="69" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="1"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="19"/>
-    </row>
-    <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="1"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="1"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="19"/>
-    </row>
-    <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="1"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="19"/>
+    </row>
+    <row r="71" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="19"/>
-    </row>
-    <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="1"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="19"/>
+    </row>
+    <row r="72" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="19"/>
-    </row>
-    <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="1"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="19"/>
+    </row>
+    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="1"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="19"/>
-    </row>
-    <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G73" s="1"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="19"/>
-    </row>
-    <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="1"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="19"/>
+    </row>
+    <row r="75" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="19"/>
-    </row>
-    <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="1"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="19"/>
+    </row>
+    <row r="76" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="1"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="19"/>
-    </row>
-    <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="1"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="1"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="19"/>
-    </row>
-    <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="1"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="19"/>
+    </row>
+    <row r="78" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="19"/>
-    </row>
-    <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="1"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="19"/>
+    </row>
+    <row r="79" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="1"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="19"/>
-    </row>
-    <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G79" s="1"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="19"/>
+    </row>
+    <row r="80" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="1"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="19"/>
-    </row>
-    <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="19"/>
+    </row>
+    <row r="81" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="19"/>
-    </row>
-    <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="1"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="19"/>
+    </row>
+    <row r="82" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="1"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="3"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="19"/>
-    </row>
-    <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="1"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="19"/>
+    </row>
+    <row r="83" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="1"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="19"/>
-    </row>
-    <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="1"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="19"/>
+    </row>
+    <row r="84" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="1"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="19"/>
-    </row>
-    <row r="85" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G84" s="1"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="19"/>
+    </row>
+    <row r="85" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="2"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J86" s="21"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K86" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="14">
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_de.xlsx
@@ -1134,37 +1134,6 @@
     <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1176,6 +1145,37 @@
     <xf numFmtId="1" fontId="31" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1703,69 +1703,69 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="41" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="30" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="J11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -2834,6 +2834,20 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:K11"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
